--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KYCDemo\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2865" windowWidth="10590" windowHeight="3990"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Data1</t>
   </si>
@@ -69,18 +64,9 @@
     <t>Exp date</t>
   </si>
   <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>4024764449971519</t>
-  </si>
-  <si>
     <t>10/33</t>
   </si>
   <si>
-    <t>000</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -126,35 +112,113 @@
     <t>Polish Zloty</t>
   </si>
   <si>
-    <t>4800337630495182</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>4284257758883933</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
     <t>Data8</t>
   </si>
   <si>
-    <t>4921817844445119</t>
-  </si>
-  <si>
-    <t>GBP</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>+44 7911123456</t>
+  </si>
+  <si>
+    <t>Address Line</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>123 Sample Street, London</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Data9</t>
+  </si>
+  <si>
+    <t>Data10</t>
+  </si>
+  <si>
+    <t>Data11</t>
+  </si>
+  <si>
+    <t>Data12</t>
+  </si>
+  <si>
+    <t>Data13</t>
+  </si>
+  <si>
+    <t>Data14</t>
+  </si>
+  <si>
+    <t>Data15</t>
+  </si>
+  <si>
+    <t>Data16</t>
+  </si>
+  <si>
+    <t>jane</t>
+  </si>
+  <si>
+    <t>NWN 4NP</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>CVV1</t>
+  </si>
+  <si>
+    <t>CVV2</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>4485141520544212</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Checkout1!</t>
+  </si>
+  <si>
+    <t>Checkout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,31 +926,55 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -904,7 +992,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -942,7 +1030,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -974,7 +1062,7 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1005,17 +1093,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <tableColumns count="9">
-    <tableColumn id="1" name="TestCase Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Data1" dataDxfId="7"/>
-    <tableColumn id="4" name="Data2" dataDxfId="6"/>
-    <tableColumn id="3" name="Data3" dataDxfId="5"/>
-    <tableColumn id="5" name="Data4" dataDxfId="4"/>
-    <tableColumn id="6" name="Data5" dataDxfId="3"/>
-    <tableColumn id="7" name="Data6" dataDxfId="2"/>
-    <tableColumn id="8" name="Data7" dataDxfId="1"/>
-    <tableColumn id="9" name="Data8" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <tableColumns count="17">
+    <tableColumn id="1" name="TestCase Name" dataDxfId="16"/>
+    <tableColumn id="2" name="Data1" dataDxfId="15"/>
+    <tableColumn id="4" name="Data2" dataDxfId="14"/>
+    <tableColumn id="3" name="Data3" dataDxfId="13"/>
+    <tableColumn id="5" name="Data4" dataDxfId="12"/>
+    <tableColumn id="6" name="Data5" dataDxfId="11"/>
+    <tableColumn id="7" name="Data6" dataDxfId="10"/>
+    <tableColumn id="8" name="Data7" dataDxfId="9"/>
+    <tableColumn id="9" name="Data8" dataDxfId="8"/>
+    <tableColumn id="10" name="Data9" dataDxfId="7"/>
+    <tableColumn id="11" name="Data10" dataDxfId="6"/>
+    <tableColumn id="12" name="Data11" dataDxfId="5"/>
+    <tableColumn id="13" name="Data12" dataDxfId="4"/>
+    <tableColumn id="14" name="Data13" dataDxfId="3"/>
+    <tableColumn id="15" name="Data14" dataDxfId="2"/>
+    <tableColumn id="16" name="Data15" dataDxfId="1"/>
+    <tableColumn id="17" name="Data16" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,7 +1160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,10 +1192,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,7 +1226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1307,15 +1401,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
@@ -1326,16 +1420,18 @@
     <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="28" style="5" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="5" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="5"/>
+    <col min="16" max="16" width="19.42578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1361,10 +1457,34 @@
         <v>12</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -1375,25 +1495,49 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="7" customFormat="1" ht="45">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>6</v>
@@ -1402,72 +1546,104 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="D4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14" t="s">
+    <row r="5" spans="1:17">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1483,14 +1659,22 @@
     <hyperlink ref="F5" r:id="rId10" display="vignesh@mailinator.com"/>
     <hyperlink ref="G5" r:id="rId11" display="vignesh@mailinator.com"/>
     <hyperlink ref="H5" r:id="rId12" display="vignesh@mailinator.com"/>
-    <hyperlink ref="G3" r:id="rId13" display="balaji.rn@trackdfect.com"/>
-    <hyperlink ref="H3" r:id="rId14" display="balaji.rn@trackdfect.com"/>
-    <hyperlink ref="I3" r:id="rId15" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="H3" r:id="rId13" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="I3" r:id="rId14" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="J3" r:id="rId15" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="K3" r:id="rId16" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="L3" r:id="rId17" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="M3" r:id="rId18" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="O3" r:id="rId19" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="P3" r:id="rId20" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="Q3" r:id="rId21" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="N3" r:id="rId22" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="G3" r:id="rId23" display="balaji.rn@trackdfect.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1501,24 +1685,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="8" customFormat="1"/>
+    <row r="2" spans="1:1">
       <c r="A2" s="9"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="9"/>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KYCDemo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KYCDemo\KYCDemo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2865" windowWidth="10590" windowHeight="3990"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2865" windowWidth="10590" windowHeight="3990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Data1</t>
   </si>
@@ -69,18 +69,9 @@
     <t>Exp date</t>
   </si>
   <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>4024764449971519</t>
-  </si>
-  <si>
     <t>10/33</t>
   </si>
   <si>
-    <t>000</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -126,28 +117,106 @@
     <t>Polish Zloty</t>
   </si>
   <si>
-    <t>4800337630495182</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>4284257758883933</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
     <t>Data8</t>
   </si>
   <si>
-    <t>4921817844445119</t>
-  </si>
-  <si>
-    <t>GBP</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>+44 7911123456</t>
+  </si>
+  <si>
+    <t>Address Line</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>123 Sample Street, London</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Data9</t>
+  </si>
+  <si>
+    <t>Data10</t>
+  </si>
+  <si>
+    <t>Data11</t>
+  </si>
+  <si>
+    <t>Data12</t>
+  </si>
+  <si>
+    <t>Data13</t>
+  </si>
+  <si>
+    <t>Data14</t>
+  </si>
+  <si>
+    <t>Data15</t>
+  </si>
+  <si>
+    <t>Data16</t>
+  </si>
+  <si>
+    <t>jane</t>
+  </si>
+  <si>
+    <t>NWN 4NP</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>CVV1</t>
+  </si>
+  <si>
+    <t>CVV2</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>4485141520544212</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Checkout1!</t>
+  </si>
+  <si>
+    <t>Checkout</t>
   </si>
 </sst>
 </file>
@@ -862,7 +931,31 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1005,17 +1098,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <tableColumns count="9">
-    <tableColumn id="1" name="TestCase Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Data1" dataDxfId="7"/>
-    <tableColumn id="4" name="Data2" dataDxfId="6"/>
-    <tableColumn id="3" name="Data3" dataDxfId="5"/>
-    <tableColumn id="5" name="Data4" dataDxfId="4"/>
-    <tableColumn id="6" name="Data5" dataDxfId="3"/>
-    <tableColumn id="7" name="Data6" dataDxfId="2"/>
-    <tableColumn id="8" name="Data7" dataDxfId="1"/>
-    <tableColumn id="9" name="Data8" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <tableColumns count="17">
+    <tableColumn id="1" name="TestCase Name" dataDxfId="16"/>
+    <tableColumn id="2" name="Data1" dataDxfId="15"/>
+    <tableColumn id="4" name="Data2" dataDxfId="14"/>
+    <tableColumn id="3" name="Data3" dataDxfId="13"/>
+    <tableColumn id="5" name="Data4" dataDxfId="12"/>
+    <tableColumn id="6" name="Data5" dataDxfId="11"/>
+    <tableColumn id="7" name="Data6" dataDxfId="10"/>
+    <tableColumn id="8" name="Data7" dataDxfId="9"/>
+    <tableColumn id="9" name="Data8" dataDxfId="8"/>
+    <tableColumn id="10" name="Data9" dataDxfId="7"/>
+    <tableColumn id="11" name="Data10" dataDxfId="6"/>
+    <tableColumn id="12" name="Data11" dataDxfId="5"/>
+    <tableColumn id="13" name="Data12" dataDxfId="4"/>
+    <tableColumn id="14" name="Data13" dataDxfId="3"/>
+    <tableColumn id="15" name="Data14" dataDxfId="2"/>
+    <tableColumn id="16" name="Data15" dataDxfId="1"/>
+    <tableColumn id="17" name="Data16" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1309,10 +1410,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,16 +1427,18 @@
     <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="28" style="5" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="5" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="5"/>
+    <col min="16" max="16" width="19.42578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1361,10 +1464,34 @@
         <v>12</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -1375,25 +1502,49 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>6</v>
@@ -1402,72 +1553,104 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="D4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1483,14 +1666,22 @@
     <hyperlink ref="F5" r:id="rId10" display="vignesh@mailinator.com"/>
     <hyperlink ref="G5" r:id="rId11" display="vignesh@mailinator.com"/>
     <hyperlink ref="H5" r:id="rId12" display="vignesh@mailinator.com"/>
-    <hyperlink ref="G3" r:id="rId13" display="balaji.rn@trackdfect.com"/>
-    <hyperlink ref="H3" r:id="rId14" display="balaji.rn@trackdfect.com"/>
-    <hyperlink ref="I3" r:id="rId15" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="H3" r:id="rId13" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="I3" r:id="rId14" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="J3" r:id="rId15" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="K3" r:id="rId16" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="L3" r:id="rId17" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="M3" r:id="rId18" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="O3" r:id="rId19" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="P3" r:id="rId20" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="Q3" r:id="rId21" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="N3" r:id="rId22" display="balaji.rn@trackdfect.com"/>
+    <hyperlink ref="G3" r:id="rId23" display="balaji.rn@trackdfect.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
